--- a/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/언제나 사랑해_케이시.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/언제나 사랑해_케이시.xlsx
@@ -17,7 +17,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_4c17eced7cc15089474e967dd2dabb9c</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_84c160918671ba543d7ec37f146e4e7a</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>일간 : 2022-04-16 ~ 2022-05-16</t>
+    <t>일간 : 2022-04-18 ~ 2022-05-18</t>
   </si>
   <si>
     <t>성별</t>
@@ -56,190 +56,190 @@
     <t>언제나 사랑해</t>
   </si>
   <si>
-    <t>2022-04-16</t>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>71.74392</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>77.37306</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>66.33554</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>79.69094</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>80.68432</t>
+  </si>
+  <si>
+    <t>2022-04-23</t>
   </si>
   <si>
     <t>100.0</t>
   </si>
   <si>
-    <t>2022-04-17</t>
-  </si>
-  <si>
-    <t>98.15418</t>
-  </si>
-  <si>
-    <t>2022-04-18</t>
-  </si>
-  <si>
-    <t>70.57546</t>
-  </si>
-  <si>
-    <t>2022-04-19</t>
-  </si>
-  <si>
-    <t>76.11292</t>
-  </si>
-  <si>
-    <t>2022-04-20</t>
-  </si>
-  <si>
-    <t>65.25515</t>
-  </si>
-  <si>
-    <t>2022-04-21</t>
-  </si>
-  <si>
-    <t>78.39305</t>
-  </si>
-  <si>
-    <t>2022-04-22</t>
-  </si>
-  <si>
-    <t>79.37024</t>
-  </si>
-  <si>
-    <t>2022-04-23</t>
-  </si>
-  <si>
-    <t>98.37133</t>
-  </si>
-  <si>
     <t>2022-04-24</t>
   </si>
   <si>
-    <t>86.64495</t>
+    <t>88.07947</t>
   </si>
   <si>
     <t>2022-04-25</t>
   </si>
   <si>
-    <t>64.38653</t>
+    <t>65.45253</t>
   </si>
   <si>
     <t>2022-04-26</t>
   </si>
   <si>
-    <t>59.06623</t>
+    <t>60.04415</t>
   </si>
   <si>
     <t>2022-04-27</t>
   </si>
   <si>
-    <t>61.1292</t>
+    <t>62.14128</t>
   </si>
   <si>
     <t>2022-04-28</t>
   </si>
   <si>
-    <t>68.51248</t>
+    <t>69.64679</t>
   </si>
   <si>
     <t>2022-04-29</t>
   </si>
   <si>
-    <t>70.68403</t>
+    <t>71.8543</t>
   </si>
   <si>
     <t>2022-04-30</t>
   </si>
   <si>
-    <t>94.35396</t>
+    <t>95.91611</t>
   </si>
   <si>
     <t>2022-05-01</t>
   </si>
   <si>
-    <t>89.68512</t>
+    <t>91.16997</t>
   </si>
   <si>
     <t>2022-05-02</t>
   </si>
   <si>
-    <t>64.27795</t>
+    <t>65.34216</t>
   </si>
   <si>
     <t>2022-05-03</t>
   </si>
   <si>
-    <t>62.54071</t>
+    <t>63.57615</t>
   </si>
   <si>
     <t>2022-05-04</t>
   </si>
   <si>
-    <t>63.84364</t>
+    <t>64.90066</t>
   </si>
   <si>
     <t>2022-05-05</t>
   </si>
   <si>
-    <t>85.45059</t>
+    <t>86.86534</t>
   </si>
   <si>
     <t>2022-05-06</t>
   </si>
   <si>
-    <t>72.3127</t>
+    <t>73.50993</t>
   </si>
   <si>
     <t>2022-05-07</t>
   </si>
   <si>
-    <t>85.01628</t>
+    <t>86.42384</t>
   </si>
   <si>
     <t>2022-05-08</t>
   </si>
   <si>
-    <t>79.04451</t>
+    <t>80.3532</t>
   </si>
   <si>
     <t>2022-05-09</t>
   </si>
   <si>
-    <t>51.14006</t>
+    <t>51.98675</t>
   </si>
   <si>
     <t>2022-05-10</t>
   </si>
   <si>
-    <t>54.50597</t>
+    <t>55.40838</t>
   </si>
   <si>
     <t>2022-05-11</t>
   </si>
   <si>
-    <t>62.32356</t>
+    <t>63.3554</t>
   </si>
   <si>
     <t>2022-05-12</t>
   </si>
   <si>
-    <t>59.82627</t>
+    <t>60.81677</t>
   </si>
   <si>
     <t>2022-05-13</t>
   </si>
   <si>
-    <t>67.53528</t>
+    <t>68.65342</t>
   </si>
   <si>
     <t>2022-05-14</t>
   </si>
   <si>
-    <t>85.12486</t>
+    <t>86.53421</t>
   </si>
   <si>
     <t>2022-05-15</t>
   </si>
   <si>
-    <t>76.98154</t>
+    <t>78.25607</t>
   </si>
   <si>
     <t>2022-05-16</t>
   </si>
   <si>
-    <t>56.24321</t>
+    <t>57.17439</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>58.94039</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>58.71964</t>
   </si>
 </sst>
 </file>
